--- a/docs/data_dictionary.xlsx
+++ b/docs/data_dictionary.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\DEND\6. Capstone\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2024986-1DA1-428C-8868-8A2E8408B93D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68780CEF-BDD6-484F-A3D4-8A5A5F24FAD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33075" yWindow="2415" windowWidth="20910" windowHeight="11835" activeTab="2" xr2:uid="{446BD6E3-D376-43AA-A9F4-D08671BFFB96}"/>
+    <workbookView xWindow="840" yWindow="-120" windowWidth="28080" windowHeight="16440" xr2:uid="{446BD6E3-D376-43AA-A9F4-D08671BFFB96}"/>
   </bookViews>
   <sheets>
     <sheet name="Reviews" sheetId="1" r:id="rId1"/>
     <sheet name="Salesranks" sheetId="2" r:id="rId2"/>
     <sheet name="Books" sheetId="3" r:id="rId3"/>
+    <sheet name="Time" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
-  <si>
-    <t>Review data (1 csv)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="54">
   <si>
     <t>SalesRank</t>
   </si>
@@ -74,9 +72,6 @@
     <t>unixReviewTime </t>
   </si>
   <si>
-    <t> helpfulness rating of the review  example: 2/3.</t>
-  </si>
-  <si>
     <t> ID of the product, like B000FA64PK </t>
   </si>
   <si>
@@ -92,24 +87,6 @@
     <t>date</t>
   </si>
   <si>
-    <t> rating of the product.</t>
-  </si>
-  <si>
-    <t> text of the review (heading). </t>
-  </si>
-  <si>
-    <t> time of the review (raw).</t>
-  </si>
-  <si>
-    <t> name of the reviewer.</t>
-  </si>
-  <si>
-    <t> summary of the review (description).</t>
-  </si>
-  <si>
-    <t> unix timestamp.</t>
-  </si>
-  <si>
     <t>group </t>
   </si>
   <si>
@@ -122,13 +99,103 @@
     <t> is the specific book format, lowercase.</t>
   </si>
   <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
-    <t>PUBLISHER</t>
+    <t>Field Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t> unix timestamp</t>
+  </si>
+  <si>
+    <t> summary of the review (description)</t>
+  </si>
+  <si>
+    <t> name of the reviewer</t>
+  </si>
+  <si>
+    <t> time of the review (raw)</t>
+  </si>
+  <si>
+    <t> text of the review (heading)</t>
+  </si>
+  <si>
+    <t> rating of the product</t>
+  </si>
+  <si>
+    <t> helpfulness rating of the review  example: 2/3</t>
+  </si>
+  <si>
+    <t> ID of the product, like B000FA64PK</t>
+  </si>
+  <si>
+    <t>title of the book</t>
+  </si>
+  <si>
+    <t>author of the book</t>
+  </si>
+  <si>
+    <t>publisher of the book</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t> is the specific book format, lowercase</t>
+  </si>
+  <si>
+    <t> is either "book" or "kindle", the two categories in terms of sales ranking</t>
+  </si>
+  <si>
+    <t>ts</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>weekday</t>
+  </si>
+  <si>
+    <t>timstamp</t>
+  </si>
+  <si>
+    <t>day of the week</t>
+  </si>
+  <si>
+    <t>full timestamp</t>
+  </si>
+  <si>
+    <t>hour of the day</t>
+  </si>
+  <si>
+    <t>day of the week in number form</t>
+  </si>
+  <si>
+    <t>week of the year</t>
+  </si>
+  <si>
+    <t>month of the year</t>
   </si>
 </sst>
 </file>
@@ -501,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9F3821-E23F-4446-9293-E645F1C24757}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,22 +583,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -539,10 +620,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -550,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,7 +642,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>16</v>
@@ -572,21 +653,21 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +675,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,21 +686,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -630,10 +700,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3B9396-DED6-4815-9F59-18673E70A07F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,37 +711,48 @@
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -680,64 +761,201 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CB0F57-B75A-4267-B726-BB1148288FA9}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" customWidth="1"/>
+    <col min="2" max="2" width="65.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F829940-8661-445E-BEF4-777DF38D61B1}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
